--- a/docs/mcode-r4/onco-core-TNMPathologicStageGroup.xlsx
+++ b/docs/mcode-r4/onco-core-TNMPathologicStageGroup.xlsx
@@ -358,7 +358,7 @@
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -412,7 +412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -1183,7 +1183,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/onco-core-TNMPathologicStageGroup.xlsx
+++ b/docs/mcode-r4/onco-core-TNMPathologicStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="497">
   <si>
     <t>Path</t>
   </si>
@@ -341,270 +341,260 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>primarycancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition-extension}
-</t>
-  </si>
-  <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
-</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -833,7 +823,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition)
 </t>
   </si>
   <si>
@@ -1728,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2794,17 +2784,19 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2839,39 +2831,43 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2919,7 +2915,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2943,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2971,25 +2967,23 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -3038,7 +3032,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -3053,19 +3047,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -3073,11 +3067,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3096,17 +3090,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -3155,7 +3149,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -3170,19 +3164,19 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -3190,11 +3184,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3213,18 +3207,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3272,7 +3266,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3287,16 +3281,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3307,41 +3301,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3365,13 +3361,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3389,13 +3385,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3404,19 +3400,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3424,7 +3420,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3432,7 +3428,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
@@ -3441,25 +3437,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3484,13 +3480,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3508,13 +3504,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3523,19 +3519,19 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3543,15 +3539,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>55</v>
@@ -3563,22 +3559,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3603,37 +3599,37 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3642,35 +3638,35 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>55</v>
@@ -3682,23 +3678,19 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3722,13 +3714,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3746,10 +3738,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3761,38 +3753,38 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3804,15 +3796,17 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3849,25 +3843,25 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3885,7 +3879,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3896,15 +3890,15 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>44</v>
@@ -3916,21 +3910,23 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3966,19 +3962,17 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3999,10 +3993,10 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -4013,9 +4007,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4024,7 +4020,7 @@
         <v>55</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -4036,20 +4032,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4085,17 +4077,19 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4116,10 +4110,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4130,17 +4124,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
@@ -4152,16 +4144,16 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4212,13 +4204,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4236,7 +4228,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4247,18 +4239,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4270,15 +4262,17 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4315,25 +4309,25 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4351,7 +4345,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4362,18 +4356,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4382,27 +4376,29 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4432,25 +4428,25 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4465,10 +4461,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4479,7 +4475,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4502,26 +4498,24 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4563,7 +4557,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4584,10 +4578,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4598,7 +4592,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4621,24 +4615,24 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>45</v>
@@ -4680,7 +4674,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4701,10 +4695,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4715,7 +4709,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4738,24 +4732,24 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>45</v>
@@ -4797,7 +4791,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4818,10 +4812,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4832,7 +4826,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4855,17 +4849,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4914,7 +4910,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4935,10 +4931,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4949,7 +4945,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4972,19 +4968,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -5033,7 +5029,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5054,10 +5050,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5068,7 +5064,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5076,7 +5072,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -5091,19 +5087,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5167,19 +5163,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5187,7 +5183,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5195,10 +5191,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5210,20 +5206,18 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5271,13 +5265,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5286,19 +5280,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5306,18 +5300,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5329,18 +5323,20 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5388,13 +5384,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5403,31 +5399,31 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5437,7 +5433,7 @@
         <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5446,19 +5442,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5507,7 +5503,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5522,31 +5518,31 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5556,7 +5552,7 @@
         <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>45</v>
@@ -5565,20 +5561,18 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5626,7 +5620,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5641,19 +5635,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5661,7 +5655,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5672,7 +5666,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5684,18 +5678,18 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5743,13 +5737,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5758,27 +5752,27 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5786,13 +5780,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
@@ -5801,17 +5795,19 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5836,13 +5832,11 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5860,42 +5854,42 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5903,34 +5897,34 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5955,11 +5949,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5977,7 +5973,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5986,7 +5982,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5995,35 +5991,35 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -6035,19 +6031,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6072,40 +6068,40 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>45</v>
@@ -6114,35 +6110,35 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6154,19 +6150,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6191,13 +6187,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6215,7 +6211,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6233,24 +6229,24 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6261,7 +6257,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6273,20 +6269,18 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6310,13 +6304,11 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6334,13 +6326,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6352,24 +6344,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6380,10 +6372,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6392,18 +6384,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6427,11 +6421,11 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6449,7 +6443,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6467,24 +6461,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6495,10 +6489,10 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
@@ -6507,20 +6501,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6544,29 +6536,31 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6584,24 +6578,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6624,16 +6618,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6683,7 +6677,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6701,24 +6695,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6741,18 +6735,20 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6800,42 +6796,42 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6846,7 +6842,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6858,20 +6854,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>384</v>
+        <v>176</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6919,19 +6911,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6940,10 +6932,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>391</v>
+        <v>180</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6954,18 +6946,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6977,15 +6969,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7034,13 +7028,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -7058,7 +7052,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7069,11 +7063,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7086,24 +7080,26 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7175,7 +7171,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7186,43 +7182,39 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7270,16 +7262,16 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7291,10 +7283,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7305,7 +7297,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7328,13 +7320,13 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7385,7 +7377,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7394,7 +7386,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7406,10 +7398,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7420,7 +7412,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7443,16 +7435,20 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7476,13 +7472,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7500,7 +7496,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7509,7 +7505,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>45</v>
@@ -7518,13 +7514,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7535,7 +7531,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7546,7 +7542,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7558,19 +7554,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7595,55 +7591,55 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7654,7 +7650,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7665,7 +7661,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7677,19 +7673,17 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7714,13 +7708,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7738,13 +7732,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7756,13 +7750,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>338</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7773,7 +7767,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7796,18 +7790,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7855,7 +7847,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7876,10 +7868,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7890,7 +7882,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7901,7 +7893,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7910,18 +7902,20 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7958,25 +7952,23 @@
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7991,10 +7983,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8005,9 +7997,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8016,7 +8010,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8028,17 +8022,15 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8075,17 +8067,19 @@
         <v>45</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AB54" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8106,10 +8100,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8120,10 +8114,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>45</v>
@@ -8145,13 +8139,13 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8202,7 +8196,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8223,10 +8217,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8237,10 +8231,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>45</v>
@@ -8262,13 +8256,13 @@
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8319,7 +8313,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8340,10 +8334,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8354,11 +8348,9 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8367,7 +8359,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8379,15 +8371,17 @@
         <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8436,7 +8430,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8457,10 +8451,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8471,7 +8465,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8482,7 +8476,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8494,18 +8488,20 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>457</v>
+        <v>381</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8553,7 +8549,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8565,7 +8561,7 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8574,10 +8570,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8588,7 +8584,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8599,7 +8595,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8608,23 +8604,19 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>384</v>
+        <v>176</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>463</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8672,19 +8664,19 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>467</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8693,10 +8685,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>180</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8707,18 +8699,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8730,15 +8722,17 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M60" s="2"/>
+      <c r="M60" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8787,13 +8781,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8811,7 +8805,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8822,11 +8816,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8839,24 +8833,26 @@
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8904,7 +8900,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8928,7 +8924,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8939,42 +8935,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>103</v>
+        <v>473</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8999,13 +8995,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9023,13 +9019,13 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
@@ -9041,16 +9037,16 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9058,7 +9054,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9066,7 +9062,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>55</v>
@@ -9081,19 +9077,19 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>155</v>
+        <v>476</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>170</v>
+        <v>308</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9118,13 +9114,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9142,10 +9138,10 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>55</v>
@@ -9160,24 +9156,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9197,22 +9193,22 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>479</v>
+        <v>150</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>309</v>
+        <v>482</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9237,13 +9233,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9261,7 +9257,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9270,7 +9266,7 @@
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>45</v>
@@ -9279,35 +9275,35 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>482</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
@@ -9319,19 +9315,19 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>484</v>
+        <v>327</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>485</v>
+        <v>328</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>486</v>
+        <v>329</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9356,13 +9352,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9380,16 +9376,16 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>45</v>
@@ -9398,28 +9394,28 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9438,19 +9434,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>155</v>
+        <v>381</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>331</v>
+        <v>487</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9475,13 +9471,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9499,7 +9495,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9517,19 +9513,19 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9545,7 +9541,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9557,20 +9553,16 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>384</v>
+        <v>176</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>489</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9618,13 +9610,13 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>488</v>
+        <v>179</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
@@ -9639,10 +9631,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>391</v>
+        <v>180</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9653,18 +9645,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9676,15 +9668,17 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M68" s="2"/>
+      <c r="M68" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9733,13 +9727,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9757,7 +9751,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9768,11 +9762,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9785,24 +9779,26 @@
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9874,7 +9870,7 @@
         <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9885,43 +9881,39 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9969,16 +9961,16 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
@@ -9990,10 +9982,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10004,7 +9996,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10027,13 +10019,13 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10084,7 +10076,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10093,7 +10085,7 @@
         <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>45</v>
@@ -10105,10 +10097,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10119,7 +10111,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10142,16 +10134,20 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10175,13 +10171,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10199,7 +10195,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10208,7 +10204,7 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>45</v>
@@ -10217,13 +10213,13 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10234,7 +10230,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10245,7 +10241,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10257,19 +10253,19 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10294,55 +10290,55 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10353,7 +10349,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10364,7 +10360,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10376,19 +10372,17 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10413,13 +10407,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10437,13 +10431,13 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
@@ -10455,13 +10449,13 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>338</v>
+        <v>428</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10472,7 +10466,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10495,18 +10489,16 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10554,7 +10546,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10575,135 +10567,20 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO76">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10713,7 +10590,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
